--- a/biology/Zoologie/Bothrops_diporus/Bothrops_diporus.xlsx
+++ b/biology/Zoologie/Bothrops_diporus/Bothrops_diporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops diporus est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops diporus est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Brésil dans les États de São Paulo, de Paraná, de Santa Catarina, de Rio Grande do Sul et de Mato Grosso do Sul ;
 en Argentine dans les provinces de Catamarca, Córdoba, Corrientes, Chaco, Formosa, Jujuy, La Pampa, La Rioja, Río Negro, Mendoza, Misiones, Salta, San Luis, Santa Fe, Santiago del Estero et de Tucumán ;
 au Paraguay.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1862 : Catalogues of the Reptiles Obtained during the Explorations of the Parana, Paraguay, Vermejo and Uraguay Rivers, by Capt. Thos. J. Page, U. S. N.; And of Those Procured by Lieut. N. Michler, U. S. Top. Eng., Commander of the Expedition Conducting the Survey of the Atrato River. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 346-359 &amp; 594 (texte intégral).</t>
         </is>
